--- a/database/seeders/data/OTHERS.xlsx
+++ b/database/seeders/data/OTHERS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\oxxo\database\seeders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6307755-3AB2-4E90-9770-4513132DAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A6F7AB-3529-490D-9CFB-3E17269013CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CDF17A4-8EBD-48C7-A5C6-315020934EE8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Item</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Baby stroller (B)</t>
+  </si>
+  <si>
+    <t>DC Price</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E944AFB-CDE1-426F-A3FD-BDB6E22BDCF2}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,134 +477,212 @@
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>167000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>265000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
+      </c>
+      <c r="B26">
+        <v>265000</v>
       </c>
     </row>
   </sheetData>
